--- a/biology/Médecine/Kanwaljeet_Anand/Kanwaljeet_Anand.xlsx
+++ b/biology/Médecine/Kanwaljeet_Anand/Kanwaljeet_Anand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kanwaljeet J. S. Anand, docteur en pédiatrie, anesthésiologie et en neurobiologie indien, est une figure majeure de la reconnaissance de la douleur chez l'enfant. Surnommé « Sunny », il a adopté ce nom d'usage[réf. nécessaire].
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Après une formation médicale au Mahatma Gandhi Memorial Medical College de l'Université d'Indore ( Inde), il devient docteur en philosophie à l'université d'Oxford en tant que boursier Rhodes et il complète sa formation à l'aide d'une bourse de recherche post-doctorale en anesthésie pédiatrique et en « résidence pédiatrique » [Note 1] à l’hôpital d'enfant de Boston [Note 2] ainsi qu'en réanimation pédiatrique à l’hôpital général du Massachusetts [Note 3].
-Ces publications, dont une centrale en 1987[1], vont révolutionner le regard scientifique sur la douleur de l'enfant, en particulier aux plus jeunes âges (fœtus, nouveau-né, nourrisson), et de très nombreux témoignages de reconnaissance de la profession suivront jusqu'à la remise en 2009 de la plus haute récompense internationale dans le domaine de la pédiatrie, la médaille Nils Rosén von Rosenstein remise tous les 5 ans par la société suédoise de médecine [Note 4].
+Ces publications, dont une centrale en 1987, vont révolutionner le regard scientifique sur la douleur de l'enfant, en particulier aux plus jeunes âges (fœtus, nouveau-né, nourrisson), et de très nombreux témoignages de reconnaissance de la profession suivront jusqu'à la remise en 2009 de la plus haute récompense internationale dans le domaine de la pédiatrie, la médaille Nils Rosén von Rosenstein remise tous les 5 ans par la société suédoise de médecine [Note 4].
 1986, prix Michael Blacow de la British Paediatric Association pour ces recherches.
 1989, subvention L. Von Meyer pour la recherche à l'Hôpital pour enfants de Boston.
 1992, bourse de recherche de résident en pédiatrie de l'académie Américaine de pédiatrie (AAP).
@@ -554,7 +568,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a intensément publié au sujet de la douleur et des analgésiques chez les nouveau-nés, et fut le rédacteur en chef du livre douleur chez les nouveau-nés et l'enfant ( "Pain in Neonates &amp; Infants" 3e édition).
 (en) KJS Anand, Hickey, « Pain and its effects in the human neonate and fetus. », The new Engl journal of medecine, no 317(21),‎ 1987, p. 1321-1329 (DOI 10.1213/01.ANE.0000048362.63828.8D, lire en ligne)
@@ -591,6 +607,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
